--- a/sheetList.xlsx
+++ b/sheetList.xlsx
@@ -76,42 +76,57 @@
     <x:t>583</x:t>
   </x:si>
   <x:si>
+    <x:t>316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>492</x:t>
+  </x:si>
+  <x:si>
     <x:t>639</x:t>
   </x:si>
   <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>966</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>318</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>492</x:t>
-  </x:si>
-  <x:si>
     <x:t>425</x:t>
   </x:si>
   <x:si>
@@ -139,18 +154,6 @@
     <x:t>117</x:t>
   </x:si>
   <x:si>
-    <x:t>349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
     <x:t>448</x:t>
   </x:si>
   <x:si>
@@ -170,9 +173,6 @@
   </x:si>
   <x:si>
     <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2208</x:t>
   </x:si>
   <x:si>
     <x:t>1603</x:t>
@@ -637,7 +637,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>13</x:v>
@@ -727,16 +727,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>10</x:v>
@@ -748,10 +748,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
@@ -759,16 +759,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>10</x:v>
@@ -791,16 +791,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>10</x:v>
@@ -812,10 +812,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -823,16 +823,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>10</x:v>
@@ -844,7 +844,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
         <x:v>14</x:v>
@@ -855,16 +855,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>10</x:v>
@@ -887,16 +887,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>10</x:v>
@@ -908,7 +908,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
         <x:v>14</x:v>
@@ -919,16 +919,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>10</x:v>
@@ -940,7 +940,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
         <x:v>14</x:v>
@@ -951,16 +951,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>10</x:v>
@@ -972,10 +972,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
@@ -983,16 +983,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>10</x:v>
@@ -1007,7 +1007,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
@@ -1015,16 +1015,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>10</x:v>
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
         <x:v>14</x:v>
@@ -1047,16 +1047,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>10</x:v>
@@ -1079,16 +1079,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>10</x:v>
@@ -1111,16 +1111,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>10</x:v>
@@ -1132,10 +1132,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
@@ -1143,16 +1143,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>10</x:v>
@@ -1164,10 +1164,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
@@ -1181,10 +1181,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>10</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
@@ -1207,16 +1207,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>10</x:v>
@@ -1228,7 +1228,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
         <x:v>10</x:v>
@@ -1239,16 +1239,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>10</x:v>
@@ -1271,16 +1271,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>10</x:v>
@@ -1295,7 +1295,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
@@ -1306,13 +1306,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>10</x:v>
@@ -1324,7 +1324,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
         <x:v>14</x:v>
@@ -1335,16 +1335,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>10</x:v>
@@ -1356,7 +1356,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>14</x:v>
@@ -1367,16 +1367,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>10</x:v>
@@ -1399,16 +1399,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
         <x:v>10</x:v>
@@ -1420,10 +1420,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10">
@@ -1431,16 +1431,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
         <x:v>10</x:v>
@@ -1452,10 +1452,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10">
@@ -1463,16 +1463,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>10</x:v>
@@ -1495,16 +1495,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>10</x:v>
@@ -1527,16 +1527,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>10</x:v>
@@ -1559,16 +1559,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
         <x:v>10</x:v>
@@ -1591,16 +1591,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>10</x:v>
@@ -1623,16 +1623,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
         <x:v>10</x:v>
@@ -1655,16 +1655,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>10</x:v>
@@ -1676,7 +1676,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
         <x:v>14</x:v>
@@ -1687,16 +1687,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
         <x:v>10</x:v>
@@ -1722,13 +1722,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>10</x:v>
@@ -1754,13 +1754,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
         <x:v>10</x:v>
@@ -1786,13 +1786,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>10</x:v>
@@ -1815,16 +1815,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>10</x:v>
@@ -1836,7 +1836,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
         <x:v>14</x:v>
@@ -1847,16 +1847,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
         <x:v>10</x:v>
@@ -1871,38 +1871,6 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:10">
-      <x:c r="A42" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J42" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
